--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -3,15 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{2AC28201-4CF5-45B8-898E-1F0ACEF9162C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rarora61.EAD\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A5B910-D64E-4541-8E4D-93FC3C38FCA3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13590" windowHeight="5355" xr2:uid="{3407FB4B-E98B-44D3-9EC2-85A4295A15B3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13590" windowHeight="5670" xr2:uid="{3407FB4B-E98B-44D3-9EC2-85A4295A15B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>property</t>
   </si>
@@ -36,6 +40,9 @@
   </si>
   <si>
     <t>Guru99</t>
+  </si>
+  <si>
+    <t>1303</t>
   </si>
 </sst>
 </file>
@@ -73,9 +80,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,6 +402,10 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -413,8 +422,8 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>1303</v>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
